--- a/spearmanhiggs.xlsx
+++ b/spearmanhiggs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvera\Desktop\programatesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD516A1E-B745-4234-A156-70ACA302F34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBF53E7-536C-4779-A0D6-32F6D3DFE339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spearmanhiggs" sheetId="1" r:id="rId1"/>
@@ -1504,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CG92"/>
   <sheetViews>
-    <sheetView zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23393,8 +23393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B59480D-A764-4B6B-A687-3BFC9201737C}">
   <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AL57" sqref="AL57"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28923,7 +28923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5FC1B6-1C86-4203-8963-8AA2C374246E}">
   <dimension ref="A1:AN51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
